--- a/PageObjectModel/data/PalmOilMillQualityCreateReportFFBQuality.xlsx
+++ b/PageObjectModel/data/PalmOilMillQualityCreateReportFFBQuality.xlsx
@@ -46,10 +46,10 @@
     <t>passwordgmas123</t>
   </si>
   <si>
-    <t>DO-org-014-20200730</t>
-  </si>
-  <si>
-    <t>Fresh fruit bunch</t>
+    <t>DO-org</t>
+  </si>
+  <si>
+    <t>Crude Palm Oil</t>
   </si>
   <si>
     <t>8687</t>
@@ -69,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -91,15 +91,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,23 +121,59 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -144,8 +181,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,59 +191,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,11 +212,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -242,37 +242,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,145 +416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,8 +454,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,7 +464,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,6 +480,36 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,200 +540,168 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1027,14 +1025,14 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16.5555555555556" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5555555555556" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.55555555555556" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.8888888888889" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.2222222222222" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.88888888888889" style="1"/>
@@ -1082,16 +1080,16 @@
       <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
     </row>

--- a/PageObjectModel/data/PalmOilMillQualityCreateReportFFBQuality.xlsx
+++ b/PageObjectModel/data/PalmOilMillQualityCreateReportFFBQuality.xlsx
@@ -71,8 +71,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -99,6 +99,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -121,45 +129,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,7 +146,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,16 +189,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,14 +212,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -242,187 +242,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,10 +451,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -464,7 +481,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,21 +502,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -510,6 +512,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,17 +542,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -551,148 +551,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>

--- a/PageObjectModel/data/PalmOilMillQualityCreateReportFFBQuality.xlsx
+++ b/PageObjectModel/data/PalmOilMillQualityCreateReportFFBQuality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>UserName</t>
   </si>
@@ -40,28 +40,40 @@
     <t>EmptyBunches</t>
   </si>
   <si>
+    <t>WetBunches</t>
+  </si>
+  <si>
+    <t>UnripeBunches</t>
+  </si>
+  <si>
     <t>sales@gmas.com</t>
   </si>
   <si>
     <t>passwordgmas123</t>
   </si>
   <si>
-    <t>DO-org</t>
+    <t>DO-</t>
   </si>
   <si>
     <t>Crude Palm Oil</t>
   </si>
   <si>
-    <t>8687</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>16</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -69,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -91,14 +103,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -106,9 +110,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,8 +133,69 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,6 +203,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,61 +224,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,21 +238,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -242,13 +254,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,7 +320,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,157 +422,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,56 +464,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -520,7 +482,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,157 +534,177 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -703,6 +715,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1022,13 +1035,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.5555555555556" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5555555555556" style="1" customWidth="1"/>
@@ -1038,10 +1051,12 @@
     <col min="6" max="6" width="8.88888888888889" style="1"/>
     <col min="7" max="7" width="10.2222222222222" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88888888888889" style="1"/>
+    <col min="9" max="9" width="12.1111111111111" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.4444444444444" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1066,31 +1081,43 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
